--- a/branches/master/StructureDefinition-BeModelMedicationRecordTreatment.xlsx
+++ b/branches/master/StructureDefinition-BeModelMedicationRecordTreatment.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="80">
   <si>
     <t>Path</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Medication Record Treatment logical model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A model for representing a Treatment </t>
   </si>
   <si>
     <t>Base</t>
@@ -598,7 +601,9 @@
       <c r="K2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
@@ -648,7 +653,7 @@
         <v>37</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>38</v>
@@ -668,7 +673,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -679,7 +684,7 @@
         <v>38</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>37</v>
@@ -691,13 +696,13 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -748,13 +753,13 @@
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>37</v>
@@ -768,7 +773,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -779,7 +784,7 @@
         <v>38</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>37</v>
@@ -791,13 +796,13 @@
         <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -848,13 +853,13 @@
         <v>37</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>37</v>
@@ -868,7 +873,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -876,10 +881,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>37</v>
@@ -891,13 +896,13 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -948,13 +953,13 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>37</v>
@@ -968,7 +973,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -976,10 +981,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>37</v>
@@ -991,13 +996,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1048,13 +1053,13 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>37</v>
@@ -1068,7 +1073,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1091,13 +1096,13 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1148,7 +1153,7 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>38</v>
@@ -1168,7 +1173,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1179,7 +1184,7 @@
         <v>38</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>37</v>
@@ -1191,13 +1196,13 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1248,13 +1253,13 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>37</v>
@@ -1268,7 +1273,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1279,7 +1284,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>37</v>
@@ -1291,13 +1296,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1348,13 +1353,13 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>37</v>
@@ -1368,7 +1373,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1379,7 +1384,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>37</v>
@@ -1391,13 +1396,13 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1448,13 +1453,13 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>37</v>
@@ -1468,7 +1473,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1479,7 +1484,7 @@
         <v>38</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>37</v>
@@ -1491,13 +1496,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1548,13 +1553,13 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>37</v>
@@ -1568,7 +1573,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1579,7 +1584,7 @@
         <v>38</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>37</v>
@@ -1591,13 +1596,13 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1648,13 +1653,13 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>37</v>
@@ -1668,7 +1673,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1679,7 +1684,7 @@
         <v>38</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>37</v>
@@ -1691,13 +1696,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1748,13 +1753,13 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>37</v>
@@ -1768,7 +1773,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1791,13 +1796,13 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1848,7 +1853,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>

--- a/branches/master/StructureDefinition-BeModelMedicationRecordTreatment.xlsx
+++ b/branches/master/StructureDefinition-BeModelMedicationRecordTreatment.xlsx
@@ -137,7 +137,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>Medication Record Treatment logical model</t>
+    <t>[Logical Model] - Treatment</t>
   </si>
   <si>
     <t xml:space="preserve">A model for representing a Treatment </t>

--- a/branches/master/StructureDefinition-BeModelMedicationRecordTreatment.xlsx
+++ b/branches/master/StructureDefinition-BeModelMedicationRecordTreatment.xlsx
@@ -140,7 +140,7 @@
     <t>[Logical Model] - Treatment</t>
   </si>
   <si>
-    <t xml:space="preserve">A model for representing a Treatment </t>
+    <t>A model for representing a Treatment.</t>
   </si>
   <si>
     <t>Base</t>
